--- a/pred_ohlcv/54_21/2020-01-15 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XVG ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-353382.8703512499</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-906507242.5263512</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-906507242.5263512</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-906826064.9173511</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-906829820.7961512</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-906863922.0319512</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-906803331.3099512</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-906725512.5880512</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-906727274.4808275</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-909217152.3835274</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-909207440.4435273</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-909207098.1335274</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-909207098.1335274</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-909296940.1333274</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-909296940.1333274</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-909296940.1333274</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-909284987.6186478</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-909451256.6520479</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-909451256.6520479</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-909451256.6520479</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-908932688.9008479</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-909140934.3356479</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-909292645.8009479</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-908795718.1569183</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-909614885.3792664</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-909614885.3792664</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-909276206.6941664</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-909592244.7521665</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-909338461.2720263</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-909528722.4391263</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-909831602.3560263</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-909831602.3560263</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XVG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-350757.86335125</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-353382.8703512499</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-312025.34285125</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-429503.91285125</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-906510820.2772512</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-906507242.5263512</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-906507242.5263512</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-906803331.3099512</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-906725512.5880512</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-909217152.3835274</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-908932688.9008479</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-909141823.9008479</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-909141823.9008479</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-909141823.9008479</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-909140934.3356479</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-909292801.3356479</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-909292645.8009479</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-908795718.1569183</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-909681091.4040412</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-909674840.2132665</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-909614885.3792664</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-909276206.6941664</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-909276206.6941664</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-909346206.6941664</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-909685628.6153665</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-909592244.7521665</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-909338461.2720263</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-909439500.1435263</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-909528722.4391263</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-909605274.9508263</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-909831602.3560263</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-909831602.3560263</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
